--- a/data/trans_dic/P25_N_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25_N_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene más de dos enfermedades crónicas</t>
+          <t>Población que tiene más de dos enfermedades crónicas (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>48,25%</t>
+          <t>48,55%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>42,76%</t>
+          <t>49,04%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>50,4%</t>
+          <t>50,2%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>53,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>72,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>62,64%</t>
+          <t>47,23%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>71,2%</t>
+          <t>72,24%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>70,54%</t>
+          <t>64,4%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>61,85%</t>
+          <t>69,91%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>53,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>62,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>62,91%</t>
+          <t>78,45%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>61,68%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>57,43%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>61,09%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>65,67%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>38,85; 57,55</t>
+          <t>33,97; 58,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,34; 49,26</t>
+          <t>40,74; 56,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,47; 57,22</t>
+          <t>42,57; 57,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>45,95; 59,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>66,51; 77,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>57,14; 68,05</t>
+          <t>30,79; 57,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>66,15; 76,66</t>
+          <t>64,08; 78,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>64,62; 75,54</t>
+          <t>58,49; 69,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>55,93; 66,67</t>
+          <t>64,51; 74,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>49,08; 57,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>56,88; 66,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>59,05; 67,28</t>
+          <t>71,29; 84,59</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>53,6; 67,33</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>52,33; 62,27</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>56,3; 65,55</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>54,34; 71,86</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>24,77%</t>
+          <t>27,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,06%</t>
+          <t>26,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>27,8%</t>
+          <t>28,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>33,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>48,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>41,77%</t>
+          <t>36,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>46,64%</t>
+          <t>51,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>52,81%</t>
+          <t>45,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>36,58%</t>
+          <t>46,71%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>32,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>36,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>42,24%</t>
+          <t>54,01%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>40,0%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>35,92%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>37,09%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>45,12%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,18; 28,71</t>
+          <t>22,23; 32,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,46; 28,29</t>
+          <t>21,73; 30,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,16; 32,39</t>
+          <t>24,2; 33,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,22; 38,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,05; 52,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,13; 45,26</t>
+          <t>30,44; 41,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,02; 50,6</t>
+          <t>46,37; 56,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,55; 57,81</t>
+          <t>41,22; 49,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,44; 39,52</t>
+          <t>42,66; 50,7</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,0; 35,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>33,85; 40,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>38,82; 45,61</t>
+          <t>47,94; 59,03</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>36,01; 44,08</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>33,02; 39,38</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>33,87; 40,07</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>41,18; 49,29</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>28,77%</t>
+          <t>31,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,54%</t>
+          <t>26,25%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>28,52%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>27,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>35,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>33,09%</t>
+          <t>32,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>33,93%</t>
+          <t>36,93%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>32,09%</t>
+          <t>34,67%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>31,87%</t>
+          <t>34,06%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>29,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>31,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>29,75%</t>
+          <t>41,26%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>34,31%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>30,69%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>31,38%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>36,93%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,97; 34,42</t>
+          <t>25,27; 38,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,35; 30,11</t>
+          <t>22,07; 31,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,1; 32,97</t>
+          <t>24,11; 32,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,75; 34,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,37; 39,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,42; 37,07</t>
+          <t>26,55; 38,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,25; 37,92</t>
+          <t>31,82; 42,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,61; 38,59</t>
+          <t>30,26; 39,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,78; 35,85</t>
+          <t>30,16; 38,21</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>26,32; 32,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>28,71; 34,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>25,35; 34,48</t>
+          <t>36,12; 46,41</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>30,32; 38,66</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>27,39; 33,97</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>28,24; 34,18</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>33,3; 41,04</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>30,47%</t>
+          <t>27,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>28,69%</t>
+          <t>22,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>49,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>44,64%</t>
+          <t>39,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>49,01%</t>
+          <t>47,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>54,16%</t>
+          <t>40,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>40,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>36,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>41,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>45,97%</t>
+          <t>55,71%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>37,14%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>31,14%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>47,15%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,49; 33,7</t>
+          <t>23,33; 31,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,15; 31,2</t>
+          <t>18,12; 27,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,11; 35,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>34,71; 41,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>46,85; 52,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>42,2; 47,26</t>
+          <t>33,87; 44,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>46,45; 51,82</t>
+          <t>42,85; 51,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,8; 57,4</t>
+          <t>35,54; 46,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>38,33; 42,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>35,03; 38,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>39,01; 43,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>43,43; 48,26</t>
+          <t>50,17; 61,05</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>34,09; 40,31</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>27,26; 35,01</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>42,66; 51,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>30,29%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>28,8%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>32,93%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>37,7%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>49,26%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>45,02%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>48,43%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>55,67%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>39,98%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>37,06%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>40,82%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>46,9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>27,52; 33,2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>26,54; 31,39</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>30,06; 35,72</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>34,13; 40,68</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>46,54; 51,96</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>42,6; 47,7</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>45,82; 51,0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>52,46; 58,54</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>37,97; 42,16</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>35,2; 38,85</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>38,94; 42,78</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>44,42; 49,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene más de dos enfermedades crónicas (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>419.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>164677</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>260033</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>365639</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>211291</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>304628</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>411269</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>628293</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>506251</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>469305</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>671301</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>993933</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>717541</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>115233; 197181</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>216001; 299726</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>310041; 417620</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>137735; 259233</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>270235; 331749</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>373518; 445843</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>579731; 668488</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>460028; 545845</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>407874; 512323</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>611724; 727840</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>916016; 1066474</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>593801; 785178</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>334.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>391.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>516.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>345.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>255367</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>316414</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>456510</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>386685</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>517559</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>560092</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>704358</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>585138</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>772927</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>876506</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1160868</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>971823</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>207352; 307220</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>262262; 372246</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>392574; 536918</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>325907; 443657</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>463704; 564455</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>508384; 613061</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>643233; 764560</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>519460; 639622</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>695836; 851809</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>805819; 961083</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1059988; 1254255</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>887046; 1061749</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>346.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>225375</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>221999</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>311882</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>268053</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>284034</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>326509</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>396190</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>370129</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>509409</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>548509</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>708073</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>638182</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>180810; 273458</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>186659; 262821</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>263623; 357568</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>220612; 315916</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>244777; 328776</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>284959; 368570</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>350856; 444505</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>324063; 416346</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>450207; 573972</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>489542; 607230</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>637219; 771468</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>575478; 709222</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>379.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>397909</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>192984</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>433759</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>664513</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>312450</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>548528</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1062422</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>505434</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>982287</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>340019; 460927</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>155845; 238203</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>372138; 490944</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>601392; 727232</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>271216; 355720</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>494027; 601080</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>975090; 1153034</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>442454; 568360</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>888695; 1062708</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>375.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>419.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>475.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>425.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>654.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>735.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>806.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>692.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1029.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1154.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1281.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>1117.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1043328</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>991430</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1134031</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1299787</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1770734</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1610319</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1728842</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2010047</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>2814063</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2601749</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>2862873</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>3309834</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>948013; 1143701</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>913910; 1080871</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1035321; 1230022</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1176760; 1402449</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1672755; 1867584</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1523704; 1706236</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1635725; 1820655</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1894085; 2113524</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>2672491; 2967755</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>2471123; 2727030</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>2731285; 3000281</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>3134857; 3475450</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
